--- a/Results/rmsfe/RMSFE_Q.xlsx
+++ b/Results/rmsfe/RMSFE_Q.xlsx
@@ -494,31 +494,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.67479</v>
+        <v>0.68</v>
       </c>
       <c r="C2" t="n">
-        <v>1.03571</v>
+        <v>1.04</v>
       </c>
       <c r="D2" t="n">
-        <v>1.01714</v>
+        <v>1.02</v>
       </c>
       <c r="E2" t="n">
-        <v>1.01258</v>
+        <v>1.06</v>
       </c>
       <c r="F2" t="n">
-        <v>0.99473</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.99758</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.00349</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.01772</v>
+        <v>1.02</v>
       </c>
       <c r="J2" t="n">
-        <v>0.94862</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +526,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>0.67138</v>
+        <v>0.67</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0281</v>
+        <v>1.03</v>
       </c>
       <c r="D3" t="n">
-        <v>0.99403</v>
+        <v>0.99</v>
       </c>
       <c r="E3" t="n">
-        <v>0.99618</v>
+        <v>1.03</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9931</v>
+        <v>0.99</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9918</v>
+        <v>0.99</v>
       </c>
       <c r="H3" t="n">
-        <v>0.98875</v>
+        <v>0.99</v>
       </c>
       <c r="I3" t="n">
-        <v>1.00337</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.93776</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="4">
@@ -558,31 +558,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>0.66865</v>
+        <v>0.67</v>
       </c>
       <c r="C4" t="n">
-        <v>0.99338</v>
+        <v>0.99</v>
       </c>
       <c r="D4" t="n">
-        <v>0.93764</v>
+        <v>0.94</v>
       </c>
       <c r="E4" t="n">
-        <v>0.95246</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.91464</v>
+        <v>0.91</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9132</v>
+        <v>0.91</v>
       </c>
       <c r="H4" t="n">
-        <v>0.92706</v>
+        <v>0.93</v>
       </c>
       <c r="I4" t="n">
-        <v>0.96612</v>
+        <v>0.97</v>
       </c>
       <c r="J4" t="n">
-        <v>0.89804</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5">
@@ -590,31 +590,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>0.66737</v>
+        <v>0.67</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9999</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.80825</v>
+        <v>0.81</v>
       </c>
       <c r="E5" t="n">
-        <v>0.97752</v>
+        <v>0.97</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8324</v>
+        <v>0.83</v>
       </c>
       <c r="G5" t="n">
-        <v>0.86126</v>
+        <v>0.86</v>
       </c>
       <c r="H5" t="n">
-        <v>0.90572</v>
+        <v>0.9</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9599</v>
+        <v>0.96</v>
       </c>
       <c r="J5" t="n">
-        <v>0.88207</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="6">
@@ -622,31 +622,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>0.53369</v>
+        <v>0.53</v>
       </c>
       <c r="C6" t="n">
-        <v>1.05548</v>
+        <v>1.06</v>
       </c>
       <c r="D6" t="n">
-        <v>0.99923</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1.02379</v>
+        <v>1.07</v>
       </c>
       <c r="F6" t="n">
-        <v>0.98333</v>
+        <v>0.99</v>
       </c>
       <c r="G6" t="n">
-        <v>0.99124</v>
+        <v>0.99</v>
       </c>
       <c r="H6" t="n">
-        <v>1.01316</v>
+        <v>1.02</v>
       </c>
       <c r="I6" t="n">
-        <v>1.01639</v>
+        <v>1.02</v>
       </c>
       <c r="J6" t="n">
-        <v>0.98531</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>0.53045</v>
+        <v>0.53</v>
       </c>
       <c r="C7" t="n">
-        <v>1.04589</v>
+        <v>1.05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.97812</v>
+        <v>0.98</v>
       </c>
       <c r="E7" t="n">
-        <v>1.02121</v>
+        <v>1.05</v>
       </c>
       <c r="F7" t="n">
-        <v>1.02234</v>
+        <v>1.02</v>
       </c>
       <c r="G7" t="n">
-        <v>1.00457</v>
+        <v>1.01</v>
       </c>
       <c r="H7" t="n">
-        <v>1.00145</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1.00183</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.94725</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="8">
@@ -686,31 +686,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>0.52726</v>
+        <v>0.53</v>
       </c>
       <c r="C8" t="n">
-        <v>1.03142</v>
+        <v>1.03</v>
       </c>
       <c r="D8" t="n">
-        <v>0.96995</v>
+        <v>0.97</v>
       </c>
       <c r="E8" t="n">
-        <v>1.01705</v>
+        <v>1.03</v>
       </c>
       <c r="F8" t="n">
-        <v>0.99953</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.99537</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.96205</v>
+        <v>0.96</v>
       </c>
       <c r="I8" t="n">
-        <v>1.01523</v>
+        <v>1.02</v>
       </c>
       <c r="J8" t="n">
-        <v>0.92442</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="9">
@@ -718,31 +718,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>0.52563</v>
+        <v>0.53</v>
       </c>
       <c r="C9" t="n">
-        <v>1.03295</v>
+        <v>1.03</v>
       </c>
       <c r="D9" t="n">
-        <v>0.90274</v>
+        <v>0.9</v>
       </c>
       <c r="E9" t="n">
-        <v>1.0117</v>
+        <v>1.03</v>
       </c>
       <c r="F9" t="n">
-        <v>0.98926</v>
+        <v>0.98</v>
       </c>
       <c r="G9" t="n">
-        <v>0.97805</v>
+        <v>0.98</v>
       </c>
       <c r="H9" t="n">
-        <v>0.97813</v>
+        <v>0.98</v>
       </c>
       <c r="I9" t="n">
-        <v>1.02834</v>
+        <v>1.02</v>
       </c>
       <c r="J9" t="n">
-        <v>0.95154</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="10">
@@ -750,31 +750,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>1.36129</v>
+        <v>1.36</v>
       </c>
       <c r="C10" t="n">
-        <v>1.02407</v>
+        <v>1.02</v>
       </c>
       <c r="D10" t="n">
-        <v>1.02295</v>
+        <v>1.02</v>
       </c>
       <c r="E10" t="n">
-        <v>1.00005</v>
+        <v>0.97</v>
       </c>
       <c r="F10" t="n">
-        <v>0.98371</v>
+        <v>0.98</v>
       </c>
       <c r="G10" t="n">
-        <v>0.98669</v>
+        <v>0.99</v>
       </c>
       <c r="H10" t="n">
-        <v>0.98841</v>
+        <v>0.99</v>
       </c>
       <c r="I10" t="n">
-        <v>0.99709</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.91122</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="11">
@@ -782,31 +782,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>1.35567</v>
+        <v>1.36</v>
       </c>
       <c r="C11" t="n">
-        <v>1.02175</v>
+        <v>1.02</v>
       </c>
       <c r="D11" t="n">
-        <v>1.00743</v>
+        <v>1.01</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9796</v>
+        <v>0.98</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9632</v>
+        <v>0.96</v>
       </c>
       <c r="G11" t="n">
-        <v>0.96212</v>
+        <v>0.96</v>
       </c>
       <c r="H11" t="n">
-        <v>0.98184</v>
+        <v>0.98</v>
       </c>
       <c r="I11" t="n">
-        <v>0.99673</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.93664</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="12">
@@ -814,31 +814,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>1.35293</v>
+        <v>1.35</v>
       </c>
       <c r="C12" t="n">
-        <v>0.98229</v>
+        <v>0.98</v>
       </c>
       <c r="D12" t="n">
-        <v>0.90058</v>
+        <v>0.9</v>
       </c>
       <c r="E12" t="n">
-        <v>0.88685</v>
+        <v>0.95</v>
       </c>
       <c r="F12" t="n">
-        <v>0.78792</v>
+        <v>0.79</v>
       </c>
       <c r="G12" t="n">
-        <v>0.80651</v>
+        <v>0.81</v>
       </c>
       <c r="H12" t="n">
-        <v>0.90208</v>
+        <v>0.9</v>
       </c>
       <c r="I12" t="n">
-        <v>0.91971</v>
+        <v>0.92</v>
       </c>
       <c r="J12" t="n">
-        <v>0.87896</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="13">
@@ -846,31 +846,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>1.35223</v>
+        <v>1.35</v>
       </c>
       <c r="C13" t="n">
-        <v>0.98555</v>
+        <v>0.99</v>
       </c>
       <c r="D13" t="n">
-        <v>0.68373</v>
+        <v>0.69</v>
       </c>
       <c r="E13" t="n">
-        <v>0.93797</v>
+        <v>0.89</v>
       </c>
       <c r="F13" t="n">
-        <v>0.64982</v>
+        <v>0.65</v>
       </c>
       <c r="G13" t="n">
-        <v>0.70373</v>
+        <v>0.7</v>
       </c>
       <c r="H13" t="n">
-        <v>0.83365</v>
+        <v>0.83</v>
       </c>
       <c r="I13" t="n">
-        <v>0.90502</v>
+        <v>0.9</v>
       </c>
       <c r="J13" t="n">
-        <v>0.82535</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="14">
@@ -878,31 +878,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>0.52134</v>
+        <v>0.52</v>
       </c>
       <c r="C14" t="n">
-        <v>1.02229</v>
+        <v>1.02</v>
       </c>
       <c r="D14" t="n">
-        <v>1.04047</v>
+        <v>1.04</v>
       </c>
       <c r="E14" t="n">
-        <v>1.02048</v>
+        <v>1.21</v>
       </c>
       <c r="F14" t="n">
-        <v>1.04614</v>
+        <v>1.04</v>
       </c>
       <c r="G14" t="n">
-        <v>1.0382</v>
+        <v>1.04</v>
       </c>
       <c r="H14" t="n">
-        <v>1.02118</v>
+        <v>1.02</v>
       </c>
       <c r="I14" t="n">
-        <v>1.07203</v>
+        <v>1.07</v>
       </c>
       <c r="J14" t="n">
-        <v>0.96145</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="15">
@@ -910,31 +910,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>0.51862</v>
+        <v>0.52</v>
       </c>
       <c r="C15" t="n">
-        <v>1.00504</v>
+        <v>1.01</v>
       </c>
       <c r="D15" t="n">
-        <v>0.99278</v>
+        <v>0.99</v>
       </c>
       <c r="E15" t="n">
-        <v>0.98372</v>
+        <v>1.09</v>
       </c>
       <c r="F15" t="n">
-        <v>1.00556</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1.0377</v>
+        <v>1.04</v>
       </c>
       <c r="H15" t="n">
-        <v>0.97883</v>
+        <v>0.98</v>
       </c>
       <c r="I15" t="n">
-        <v>1.02389</v>
+        <v>1.02</v>
       </c>
       <c r="J15" t="n">
-        <v>0.91941</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="16">
@@ -942,31 +942,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5159</v>
+        <v>0.52</v>
       </c>
       <c r="C16" t="n">
-        <v>0.93577</v>
+        <v>0.94</v>
       </c>
       <c r="D16" t="n">
-        <v>0.95814</v>
+        <v>0.96</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9735</v>
+        <v>1.05</v>
       </c>
       <c r="F16" t="n">
-        <v>1.01744</v>
+        <v>1.02</v>
       </c>
       <c r="G16" t="n">
-        <v>0.98124</v>
+        <v>0.98</v>
       </c>
       <c r="H16" t="n">
-        <v>0.91349</v>
+        <v>0.91</v>
       </c>
       <c r="I16" t="n">
-        <v>0.97599</v>
+        <v>0.98</v>
       </c>
       <c r="J16" t="n">
-        <v>0.88945</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="17">
@@ -974,31 +974,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>0.51436</v>
+        <v>0.51</v>
       </c>
       <c r="C17" t="n">
-        <v>0.96381</v>
+        <v>0.96</v>
       </c>
       <c r="D17" t="n">
-        <v>0.89215</v>
+        <v>0.89</v>
       </c>
       <c r="E17" t="n">
-        <v>1.0041</v>
+        <v>1.04</v>
       </c>
       <c r="F17" t="n">
-        <v>0.88909</v>
+        <v>0.89</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9625</v>
+        <v>0.96</v>
       </c>
       <c r="H17" t="n">
-        <v>0.92565</v>
+        <v>0.92</v>
       </c>
       <c r="I17" t="n">
-        <v>0.94724</v>
+        <v>0.94</v>
       </c>
       <c r="J17" t="n">
-        <v>0.87051</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="18">
@@ -1006,31 +1006,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>1.21295</v>
+        <v>1.21</v>
       </c>
       <c r="C18" t="n">
-        <v>1.03142</v>
+        <v>1.03</v>
       </c>
       <c r="D18" t="n">
-        <v>0.98474</v>
+        <v>0.99</v>
       </c>
       <c r="E18" t="n">
-        <v>0.96907</v>
+        <v>1.03</v>
       </c>
       <c r="F18" t="n">
-        <v>0.97231</v>
+        <v>0.97</v>
       </c>
       <c r="G18" t="n">
-        <v>0.97687</v>
+        <v>0.98</v>
       </c>
       <c r="H18" t="n">
-        <v>0.97776</v>
+        <v>0.98</v>
       </c>
       <c r="I18" t="n">
-        <v>1.00065</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.91902</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="19">
@@ -1038,31 +1038,31 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>1.20767</v>
+        <v>1.21</v>
       </c>
       <c r="C19" t="n">
-        <v>1.02413</v>
+        <v>1.03</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9452</v>
+        <v>0.95</v>
       </c>
       <c r="E19" t="n">
-        <v>0.95298</v>
+        <v>0.98</v>
       </c>
       <c r="F19" t="n">
-        <v>0.89706</v>
+        <v>0.9</v>
       </c>
       <c r="G19" t="n">
-        <v>0.90664</v>
+        <v>0.91</v>
       </c>
       <c r="H19" t="n">
-        <v>0.94543</v>
+        <v>0.95</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9799</v>
+        <v>0.98</v>
       </c>
       <c r="J19" t="n">
-        <v>0.90593</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="20">
@@ -1070,31 +1070,31 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>1.20367</v>
+        <v>1.2</v>
       </c>
       <c r="C20" t="n">
-        <v>0.97587</v>
+        <v>0.97</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8485</v>
+        <v>0.85</v>
       </c>
       <c r="E20" t="n">
-        <v>0.90311</v>
+        <v>0.94</v>
       </c>
       <c r="F20" t="n">
-        <v>0.82168</v>
+        <v>0.82</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8273</v>
+        <v>0.83</v>
       </c>
       <c r="H20" t="n">
-        <v>0.87429</v>
+        <v>0.87</v>
       </c>
       <c r="I20" t="n">
-        <v>0.92064</v>
+        <v>0.92</v>
       </c>
       <c r="J20" t="n">
-        <v>0.87192</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="21">
@@ -1102,31 +1102,31 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>1.20212</v>
+        <v>1.2</v>
       </c>
       <c r="C21" t="n">
-        <v>0.98708</v>
+        <v>0.99</v>
       </c>
       <c r="D21" t="n">
-        <v>0.65139</v>
+        <v>0.66</v>
       </c>
       <c r="E21" t="n">
-        <v>0.94958</v>
+        <v>0.88</v>
       </c>
       <c r="F21" t="n">
-        <v>0.69797</v>
+        <v>0.7</v>
       </c>
       <c r="G21" t="n">
-        <v>0.73022</v>
+        <v>0.73</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8409</v>
+        <v>0.84</v>
       </c>
       <c r="I21" t="n">
-        <v>0.90955</v>
+        <v>0.91</v>
       </c>
       <c r="J21" t="n">
-        <v>0.83621</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="22">
@@ -1134,31 +1134,31 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>0.52722</v>
+        <v>0.53</v>
       </c>
       <c r="C22" t="n">
-        <v>1.05947</v>
+        <v>1.06</v>
       </c>
       <c r="D22" t="n">
-        <v>1.09373</v>
+        <v>1.09</v>
       </c>
       <c r="E22" t="n">
-        <v>1.10227</v>
+        <v>1.1</v>
       </c>
       <c r="F22" t="n">
-        <v>1.05289</v>
+        <v>1.05</v>
       </c>
       <c r="G22" t="n">
-        <v>1.04407</v>
+        <v>1.04</v>
       </c>
       <c r="H22" t="n">
-        <v>1.05265</v>
+        <v>1.05</v>
       </c>
       <c r="I22" t="n">
-        <v>1.05803</v>
+        <v>1.06</v>
       </c>
       <c r="J22" t="n">
-        <v>0.89462</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="23">
@@ -1166,31 +1166,31 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>0.52302</v>
+        <v>0.52</v>
       </c>
       <c r="C23" t="n">
-        <v>1.03981</v>
+        <v>1.04</v>
       </c>
       <c r="D23" t="n">
-        <v>1.10523</v>
+        <v>1.1</v>
       </c>
       <c r="E23" t="n">
-        <v>1.10037</v>
+        <v>1.12</v>
       </c>
       <c r="F23" t="n">
-        <v>1.17277</v>
+        <v>1.17</v>
       </c>
       <c r="G23" t="n">
-        <v>1.12414</v>
+        <v>1.13</v>
       </c>
       <c r="H23" t="n">
-        <v>1.08943</v>
+        <v>1.09</v>
       </c>
       <c r="I23" t="n">
-        <v>1.06679</v>
+        <v>1.07</v>
       </c>
       <c r="J23" t="n">
-        <v>0.93486</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="24">
@@ -1198,31 +1198,31 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>0.51967</v>
+        <v>0.52</v>
       </c>
       <c r="C24" t="n">
-        <v>1.00336</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1.11417</v>
+        <v>1.11</v>
       </c>
       <c r="E24" t="n">
-        <v>1.05742</v>
+        <v>1.09</v>
       </c>
       <c r="F24" t="n">
-        <v>1.011</v>
+        <v>1.01</v>
       </c>
       <c r="G24" t="n">
-        <v>0.98765</v>
+        <v>0.99</v>
       </c>
       <c r="H24" t="n">
-        <v>1.04776</v>
+        <v>1.05</v>
       </c>
       <c r="I24" t="n">
-        <v>1.07181</v>
+        <v>1.07</v>
       </c>
       <c r="J24" t="n">
-        <v>0.88734</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="25">
@@ -1230,31 +1230,31 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>0.51809</v>
+        <v>0.52</v>
       </c>
       <c r="C25" t="n">
-        <v>1.01549</v>
+        <v>1.02</v>
       </c>
       <c r="D25" t="n">
-        <v>1.06111</v>
+        <v>1.06</v>
       </c>
       <c r="E25" t="n">
-        <v>1.08505</v>
+        <v>1.12</v>
       </c>
       <c r="F25" t="n">
-        <v>0.99439</v>
+        <v>0.99</v>
       </c>
       <c r="G25" t="n">
-        <v>0.99213</v>
+        <v>0.99</v>
       </c>
       <c r="H25" t="n">
-        <v>1.02224</v>
+        <v>1.02</v>
       </c>
       <c r="I25" t="n">
-        <v>1.07546</v>
+        <v>1.08</v>
       </c>
       <c r="J25" t="n">
-        <v>0.89135</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="26">
@@ -1262,31 +1262,31 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>0.39178</v>
+        <v>0.39</v>
       </c>
       <c r="C26" t="n">
-        <v>1.02938</v>
+        <v>1.03</v>
       </c>
       <c r="D26" t="n">
-        <v>1.06061</v>
+        <v>1.06</v>
       </c>
       <c r="E26" t="n">
-        <v>1.08133</v>
+        <v>1.11</v>
       </c>
       <c r="F26" t="n">
-        <v>1.01959</v>
+        <v>1.02</v>
       </c>
       <c r="G26" t="n">
-        <v>1.02892</v>
+        <v>1.03</v>
       </c>
       <c r="H26" t="n">
-        <v>1.04999</v>
+        <v>1.05</v>
       </c>
       <c r="I26" t="n">
-        <v>1.04205</v>
+        <v>1.04</v>
       </c>
       <c r="J26" t="n">
-        <v>1.09276</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="27">
@@ -1294,31 +1294,31 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>0.38985</v>
+        <v>0.39</v>
       </c>
       <c r="C27" t="n">
-        <v>1.03197</v>
+        <v>1.03</v>
       </c>
       <c r="D27" t="n">
-        <v>1.06042</v>
+        <v>1.06</v>
       </c>
       <c r="E27" t="n">
-        <v>1.05065</v>
+        <v>1.11</v>
       </c>
       <c r="F27" t="n">
-        <v>1.13919</v>
+        <v>1.14</v>
       </c>
       <c r="G27" t="n">
-        <v>1.14971</v>
+        <v>1.15</v>
       </c>
       <c r="H27" t="n">
-        <v>1.04677</v>
+        <v>1.05</v>
       </c>
       <c r="I27" t="n">
-        <v>1.02903</v>
+        <v>1.03</v>
       </c>
       <c r="J27" t="n">
-        <v>1.0491</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="28">
@@ -1326,31 +1326,31 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>0.38798</v>
+        <v>0.39</v>
       </c>
       <c r="C28" t="n">
-        <v>1.04562</v>
+        <v>1.05</v>
       </c>
       <c r="D28" t="n">
-        <v>1.06325</v>
+        <v>1.06</v>
       </c>
       <c r="E28" t="n">
-        <v>1.02656</v>
+        <v>1.1</v>
       </c>
       <c r="F28" t="n">
-        <v>1.1214</v>
+        <v>1.12</v>
       </c>
       <c r="G28" t="n">
-        <v>1.11719</v>
+        <v>1.12</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9967</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1.02715</v>
+        <v>1.03</v>
       </c>
       <c r="J28" t="n">
-        <v>0.99709</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1358,31 +1358,31 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>0.38675</v>
+        <v>0.39</v>
       </c>
       <c r="C29" t="n">
-        <v>1.03254</v>
+        <v>1.03</v>
       </c>
       <c r="D29" t="n">
-        <v>1.03674</v>
+        <v>1.04</v>
       </c>
       <c r="E29" t="n">
-        <v>0.97613</v>
+        <v>1.11</v>
       </c>
       <c r="F29" t="n">
-        <v>1.08842</v>
+        <v>1.09</v>
       </c>
       <c r="G29" t="n">
-        <v>1.13347</v>
+        <v>1.14</v>
       </c>
       <c r="H29" t="n">
-        <v>1.01844</v>
+        <v>1.02</v>
       </c>
       <c r="I29" t="n">
-        <v>1.02834</v>
+        <v>1.02</v>
       </c>
       <c r="J29" t="n">
-        <v>1.02798</v>
+        <v>1.02</v>
       </c>
     </row>
   </sheetData>
